--- a/biology/Zoologie/Barbu_à_oreillons_noirs/Barbu_à_oreillons_noirs.xlsx
+++ b/biology/Zoologie/Barbu_à_oreillons_noirs/Barbu_à_oreillons_noirs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbu_%C3%A0_oreillons_noirs</t>
+          <t>Barbu_à_oreillons_noirs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilopogon duvaucelii
-Le Barbu à oreillons noirs (Psilopogon duvaucelii) est une espèce d'oiseaux de la famille des Megalaimidae[1].
+Le Barbu à oreillons noirs (Psilopogon duvaucelii) est une espèce d'oiseaux de la famille des Megalaimidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbu_%C3%A0_oreillons_noirs</t>
+          <t>Barbu_à_oreillons_noirs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre dans le Nord-Est de l'Inde, au Népal, au Bhoutan, au Bangladesh, en Birmanie, en Thaïlande, dans le Sud de la Chine, au Laos, au Cambodge, au Viêt Nam, en Malaisie, au Brunei et en Indonésie à Sumatra et au Kalimantan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre dans le Nord-Est de l'Inde, au Népal, au Bhoutan, au Bangladesh, en Birmanie, en Thaïlande, dans le Sud de la Chine, au Laos, au Cambodge, au Viêt Nam, en Malaisie, au Brunei et en Indonésie à Sumatra et au Kalimantan.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barbu_%C3%A0_oreillons_noirs</t>
+          <t>Barbu_à_oreillons_noirs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 6.4, 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 6.4, 2016) :
 Psilopogon duvaucelii cyanotis (Blyth, 1847)
 Psilopogon duvaucelii orientalis (Robinson, 1915)
 Psilopogon duvaucelii stuarti (Robinson &amp; Kloss, 1919)
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barbu_%C3%A0_oreillons_noirs</t>
+          <t>Barbu_à_oreillons_noirs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psilopogon australis duvaucelii a été élevée au rang d'espèce à la suite des travaux de den Tex et Leonard en 2013[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psilopogon australis duvaucelii a été élevée au rang d'espèce à la suite des travaux de den Tex et Leonard en 2013.
 </t>
         </is>
       </c>
